--- a/exercises/dennis/exercise_4/Task_4_grid_results/res_line/loading_percent.xlsx
+++ b/exercises/dennis/exercise_4/Task_4_grid_results/res_line/loading_percent.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.71616705007605</v>
+        <v>10.71639181280116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.711063514108117</v>
+        <v>9.685615476288307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.3488956327914</v>
+        <v>11.36441640484804</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.384052241300456</v>
+        <v>8.321758060766042</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.02156308996552</v>
+        <v>8.02156308997594</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71980679700815</v>
+        <v>11.74402084540671</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.30887538167969</v>
+        <v>10.29891350380103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.62516475647884</v>
+        <v>10.62313790352478</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.4833244464875</v>
+        <v>16.48332444673128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.87672479018075</v>
+        <v>15.87672479019624</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.74682085191141</v>
+        <v>11.77166121208274</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.11582082485092</v>
+        <v>19.11582082485829</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.52499727383624</v>
+        <v>13.52499727384114</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.36975577041756</v>
+        <v>18.36975577030475</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.54299375891066</v>
+        <v>22.54299375897429</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.16300161182592</v>
+        <v>18.16300161175386</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9651437521933</v>
+        <v>18.96514375208555</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.25900096722008</v>
+        <v>16.25900096726252</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.34421734620476</v>
+        <v>12.38265734015307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.74576120769343</v>
+        <v>19.74576120780136</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.81594722571172</v>
+        <v>18.81594722573503</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.33923093836068</v>
+        <v>24.33923093835051</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.95208930772468</v>
+        <v>22.95208930773465</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.88556063011711</v>
+        <v>18.88556062997955</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.6312130347587</v>
+        <v>18.63121303485974</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.54825777967129</v>
+        <v>21.54825777973326</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.04432660777445</v>
+        <v>21.04432660781164</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>14.0185124305193</v>
+        <v>14.01851243043937</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.045790355517497</v>
+        <v>9.002296013489259</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21.82625978032975</v>
+        <v>21.82625978021726</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>26.10752144873988</v>
+        <v>26.10752144879942</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>28.37443260140875</v>
+        <v>28.37443260144346</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27.51232061759535</v>
+        <v>27.51232061761026</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33.2736853697763</v>
+        <v>33.27368536974434</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>42.36218161601733</v>
+        <v>42.36218161610518</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>51.18248923849345</v>
+        <v>51.18248923853134</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>52.97755834600085</v>
+        <v>52.97755834612211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>63.49835341449144</v>
+        <v>63.49835341447266</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>69.44270265702602</v>
+        <v>69.44270265720998</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>78.18164442968533</v>
+        <v>78.18164442954809</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>87.14315617641144</v>
+        <v>87.14315617633034</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94.33991880027645</v>
+        <v>94.33991874698749</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109.7981500577912</v>
+        <v>109.7981500577937</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>103.6420982245022</v>
+        <v>103.642098224448</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>111.6186773040221</v>
+        <v>111.618677304003</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>108.0337120625829</v>
+        <v>108.0337120625781</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118.5485642558376</v>
+        <v>118.548564255829</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>108.3328245663021</v>
+        <v>108.3328245663653</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>111.6178644705285</v>
+        <v>111.6178644705545</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>111.9707397497654</v>
+        <v>111.9707397496891</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>98.12832893121734</v>
+        <v>98.12832893115635</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>100.6985177861928</v>
+        <v>100.6985177860224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>97.14906403648845</v>
+        <v>97.14906403638601</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>93.48257511251774</v>
+        <v>93.48257506276845</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>89.29598501597927</v>
+        <v>89.2959850159355</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>91.77087843121254</v>
+        <v>91.77087843103378</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>83.13063234937594</v>
+        <v>83.13063234942344</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>82.7818160084736</v>
+        <v>82.78181600845342</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>78.01582382206952</v>
+        <v>78.01582382207182</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>72.13486042583186</v>
+        <v>72.13486042589918</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>72.09055771430769</v>
+        <v>72.09055771429026</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>63.41558847675039</v>
+        <v>63.41558847669096</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>69.05214455627949</v>
+        <v>69.05214455632579</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>60.67878705664178</v>
+        <v>60.67878705672229</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>50.90382057845601</v>
+        <v>50.90382057846779</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>41.28873909597699</v>
+        <v>41.28873909596644</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>32.50136672791205</v>
+        <v>32.50136672786002</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>26.49923917363453</v>
+        <v>26.49923917356989</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.05853954705331</v>
+        <v>10.05002217185243</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.427152399021226</v>
+        <v>7.383470221648785</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.76065955937431</v>
+        <v>17.76065955932668</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.28467294517463</v>
+        <v>33.28467294524883</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.74990223396779</v>
+        <v>35.74990223388456</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>47.8806145337909</v>
+        <v>47.88061453383707</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>65.59941237549559</v>
+        <v>65.59941237531814</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>76.17658962158133</v>
+        <v>76.17658962154049</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>90.35466484044285</v>
+        <v>90.35466484033816</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>83.88971789628886</v>
+        <v>83.88971789619497</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>90.02573112995249</v>
+        <v>90.02573112956792</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>92.2703037872697</v>
+        <v>92.27030378714564</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>102.2903547472222</v>
+        <v>102.2903546184655</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>94.82963150279869</v>
+        <v>94.82963150265807</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>84.49063744453578</v>
+        <v>84.49063744445638</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>85.16310499231369</v>
+        <v>85.16310499242134</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>71.448810106195</v>
+        <v>71.44881010617092</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>77.58865566128735</v>
+        <v>77.58865566127898</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>72.28744400980712</v>
+        <v>72.28744400968063</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>54.28540697087239</v>
+        <v>54.2854069707289</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>57.76119329672387</v>
+        <v>57.76119329681024</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>45.20629148687777</v>
+        <v>45.20629148684236</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.35066324079569</v>
+        <v>31.35066324080838</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>22.01999816884958</v>
+        <v>22.0199981689283</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.97700748308009</v>
+        <v>16.97700748308413</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.3145722821039</v>
+        <v>10.31457228209705</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.85221938131297</v>
+        <v>7.852219381364343</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>10.14715483144954</v>
+        <v>10.13306763327891</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.947368501530128</v>
+        <v>7.947368501585818</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>10.36510865943411</v>
+        <v>10.35656940047886</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.32302514433865</v>
+        <v>10.31342168073057</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14.94976338491872</v>
+        <v>14.94976338489131</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10.00946226286982</v>
+        <v>9.991826883315959</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>14.1858160189835</v>
+        <v>14.18581601888287</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>12.27753521598794</v>
+        <v>12.31440087876706</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>16.25052821859784</v>
+        <v>16.25052821860521</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.70736200301839</v>
+        <v>12.74596313644573</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>14.16082420831872</v>
+        <v>14.16082420828124</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>17.19907272219631</v>
+        <v>17.19907272227612</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>19.92117049802462</v>
+        <v>19.92117049807776</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>16.48294443723645</v>
+        <v>16.48294443721323</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>18.57324022247028</v>
+        <v>18.57324022257337</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>15.96384118220111</v>
+        <v>15.96384118209387</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12.10543434709264</v>
+        <v>12.13849220793979</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.53723667967138</v>
+        <v>11.5571962015157</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>13.11709216334395</v>
+        <v>13.11709216329754</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>19.97827446962538</v>
+        <v>19.97827446965806</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>16.70211803232667</v>
+        <v>16.70211803242628</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>21.8427124222435</v>
+        <v>21.84271242233467</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>23.75599017368101</v>
+        <v>23.7559901737196</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>23.54863089579437</v>
+        <v>23.54863089567258</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>21.20710545244603</v>
+        <v>21.20710545256776</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.71575324015621</v>
+        <v>20.71575324033724</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>25.10815007549121</v>
+        <v>25.108150075394</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>15.79997628059693</v>
+        <v>15.79997628069793</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.41072560656593</v>
+        <v>19.41072560651992</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>11.73050137443177</v>
+        <v>11.7305013743989</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>19.67160469118714</v>
+        <v>19.67160469122878</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>20.43498299407998</v>
+        <v>20.43498299400812</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24.01434780667449</v>
+        <v>24.01434780660398</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>27.82525856116879</v>
+        <v>27.82525856107164</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>30.57440962241311</v>
+        <v>30.57440962248307</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>43.5205279779038</v>
+        <v>43.52052797794271</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>44.09393402063979</v>
+        <v>44.09393402073398</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>59.82723082535776</v>
+        <v>59.82723082538176</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>69.78299294735646</v>
+        <v>69.78299294733075</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>74.22717380784567</v>
+        <v>74.22717380787527</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>78.29880029255574</v>
+        <v>78.29880029266295</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>93.14542745166602</v>
+        <v>93.14542740282531</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>99.26262235064634</v>
+        <v>99.26262235060798</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>104.8691818703598</v>
+        <v>104.8691818704125</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>106.5057425784167</v>
+        <v>106.5057425783845</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>113.1754620245079</v>
+        <v>113.1754620246419</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>114.1488963401577</v>
+        <v>114.1488963402517</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>107.0223998165811</v>
+        <v>107.0223998165282</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>115.1392042327615</v>
+        <v>115.139204232929</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>109.4227883000342</v>
+        <v>109.4227883000675</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>105.3813774870862</v>
+        <v>105.3813774871622</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>101.7217246986977</v>
+        <v>101.7217246987002</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>101.838668149052</v>
+        <v>101.8386681490742</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>99.42145949848158</v>
+        <v>99.42145949842394</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>98.83761618588167</v>
+        <v>98.83761618586546</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>92.48193496231534</v>
+        <v>92.48193491604158</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>84.00034882544134</v>
+        <v>84.0003488254614</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>86.51626629990695</v>
+        <v>86.51626629991192</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>88.54615369282706</v>
+        <v>88.5461536928255</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>73.04187564627532</v>
+        <v>73.04187564629686</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>78.28279840476685</v>
+        <v>78.28279840456995</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>69.26218952248233</v>
+        <v>69.2621895225043</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>62.48542651700147</v>
+        <v>62.48542651699341</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>64.11192080984036</v>
+        <v>64.11192080986159</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>58.12345357686279</v>
+        <v>58.12345357688473</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>58.62345006032849</v>
+        <v>58.62345006027327</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>46.99964287394921</v>
+        <v>46.99964287389854</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>35.31845626579881</v>
+        <v>35.31845626575198</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>28.29561818375296</v>
+        <v>28.29561818368862</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>16.81112371747631</v>
+        <v>16.81112371750599</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.502647334331115</v>
+        <v>9.502647334354924</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>17.16661501832174</v>
+        <v>17.16661501837477</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>31.93351960209081</v>
+        <v>31.9335196019135</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>40.01324320555837</v>
+        <v>40.01324320544003</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>52.3916802923632</v>
+        <v>52.3916802923899</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>63.79444217081641</v>
+        <v>63.79444217085496</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>70.3464664302136</v>
+        <v>70.34646643026706</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>80.67797719187739</v>
+        <v>80.677977191881</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>90.24859959410855</v>
+        <v>90.2485995940756</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>91.51094498310597</v>
+        <v>91.51094498325742</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>92.54708389513664</v>
+        <v>92.54708389517721</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>100.9058109574178</v>
+        <v>100.905810844</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>87.9071250400813</v>
+        <v>87.9071250402061</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>93.81613340339281</v>
+        <v>93.81613340330762</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>87.9463738186025</v>
+        <v>87.94637381874534</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>75.62008865764246</v>
+        <v>75.62008865774638</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>71.72084354000886</v>
+        <v>71.7208435399928</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>64.87138715839778</v>
+        <v>64.87138715827665</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>65.28225202625528</v>
+        <v>65.28225202610056</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>53.89749376944741</v>
+        <v>53.89749376946303</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>40.35186793602853</v>
+        <v>40.35186793609913</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>35.18520769488482</v>
+        <v>35.18520769496683</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>29.33554325330558</v>
+        <v>29.33554325326172</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>22.15368796609186</v>
+        <v>22.15368796628571</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.18767209479982</v>
+        <v>12.18767209475207</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.037308872359088</v>
+        <v>8.037308872321189</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.868248823897366</v>
+        <v>8.868248823723768</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.45318561240029</v>
+        <v>8.453185612330525</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.896243803451164</v>
+        <v>8.869345575211957</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8.014430360028257</v>
+        <v>8.014430360110609</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.087722639610861</v>
+        <v>9.045397302966661</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.97160220541262</v>
+        <v>10.97807634825726</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.80025411112506</v>
+        <v>13.80025411105618</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.79632767197295</v>
+        <v>10.79852481685037</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.49973793830916</v>
+        <v>11.51881778312576</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.27960174407775</v>
+        <v>12.31659195832791</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>10.1120578725111</v>
+        <v>10.0970701014685</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>15.32621164191951</v>
+        <v>15.32621164200836</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.47916859887786</v>
+        <v>17.47916859881308</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>20.16519564548726</v>
+        <v>20.16519564539381</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.06969051092233</v>
+        <v>12.10193653941843</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>14.65120164383877</v>
+        <v>14.65120164395033</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>19.21005521740228</v>
+        <v>19.21005521737974</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>20.75457828826543</v>
+        <v>20.7545782883278</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.75108122433637</v>
+        <v>15.75108122431833</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>17.49665521359506</v>
+        <v>17.49665521346157</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>27.98346818362408</v>
+        <v>27.98346818363304</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>23.03056019886399</v>
+        <v>23.03056019887709</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.31852660884713</v>
+        <v>22.31852660894013</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>27.45942492053732</v>
+        <v>27.45942492062357</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>25.57469094618206</v>
+        <v>25.5746909462537</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>19.48841270843153</v>
+        <v>19.48841270841802</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>17.28550763105341</v>
+        <v>17.28550763113566</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>20.1321543887328</v>
+        <v>20.13215438870193</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.38050609233558</v>
+        <v>15.38050609237921</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>16.86452157639009</v>
+        <v>16.86452157643186</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>17.80492243104326</v>
+        <v>17.80492243104191</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>18.38595522254291</v>
+        <v>18.3859552226059</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>24.35972384550487</v>
+        <v>24.35972384539462</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>28.1886333879319</v>
+        <v>28.1886333879964</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>26.12468457107448</v>
+        <v>26.12468457108219</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>43.74409232445887</v>
+        <v>43.74409232444776</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>52.6485086901179</v>
+        <v>52.64850869002754</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>60.57156985709056</v>
+        <v>60.57156985707793</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>65.36798978486075</v>
+        <v>65.36798978469182</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>77.48317314783357</v>
+        <v>77.48317314775012</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>80.3375349820864</v>
+        <v>80.33753498203005</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>91.51975883126326</v>
+        <v>91.51975883125641</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>96.75581028864183</v>
+        <v>96.75581028856479</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>100.3307708116633</v>
+        <v>100.3307708117553</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>113.3621516169981</v>
+        <v>113.3621516168219</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>110.2125120063756</v>
+        <v>110.2125120063992</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>105.7361872689873</v>
+        <v>105.736187268942</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>112.6436971508708</v>
+        <v>112.6436971510552</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>109.5626493385086</v>
+        <v>109.5626493385427</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>109.0191332339639</v>
+        <v>109.0191332339177</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>105.3226009730802</v>
+        <v>105.3226009732272</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>103.7754216515722</v>
+        <v>103.7754216515439</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>96.74349140657732</v>
+        <v>96.74349140627542</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>102.7658930626323</v>
+        <v>102.7658930628276</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>96.44143899544305</v>
+        <v>96.44143899543118</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>94.89061877370317</v>
+        <v>94.89061871820887</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>90.93804698903105</v>
+        <v>90.93804698902552</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>84.48736473595243</v>
+        <v>84.4873647359404</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>80.68079993967176</v>
+        <v>80.68079993973811</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>79.35276323512525</v>
+        <v>79.35276323529091</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>73.39872216417793</v>
+        <v>73.39872216416043</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>72.5828918557682</v>
+        <v>72.58289185571873</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>66.13965091684011</v>
+        <v>66.13965091674235</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>61.3539636982328</v>
+        <v>61.35396369812923</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>63.98170295982902</v>
+        <v>63.98170295981041</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>56.76592257387551</v>
+        <v>56.76592257381867</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>48.60645062682831</v>
+        <v>48.60645062681685</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>29.14392075184421</v>
+        <v>29.14392075172217</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>23.08874655198142</v>
+        <v>23.08874655204658</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>11.85041908425765</v>
+        <v>11.85041908427243</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7.982258652163601</v>
+        <v>7.982258652171488</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>19.38710160047536</v>
+        <v>19.38710160050012</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>33.01230262568643</v>
+        <v>33.01230262559147</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>37.21305719450802</v>
+        <v>37.21305719438753</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>48.55686725452154</v>
+        <v>48.55686725471812</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>62.9189773146587</v>
+        <v>62.91897731454188</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>66.78825806834909</v>
+        <v>66.78825806840622</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>83.94169531189335</v>
+        <v>83.94169531196215</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>90.62918367690092</v>
+        <v>90.62918367695987</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>90.6427043851058</v>
+        <v>90.64270438517534</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>90.74074729931129</v>
+        <v>90.7407472993835</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>91.58388124479427</v>
+        <v>91.58388124471047</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>85.66957786955979</v>
+        <v>85.66957786958405</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>80.96429395125196</v>
+        <v>80.96429395127434</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>84.98521842333821</v>
+        <v>84.98521842333652</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>71.20567977067391</v>
+        <v>71.20567977060898</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>73.08004575247882</v>
+        <v>73.08004575253106</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>65.05619128853488</v>
+        <v>65.05619128842531</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>66.77204095145515</v>
+        <v>66.77204095138556</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>57.95797092053492</v>
+        <v>57.95797092048438</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>46.6970977953522</v>
+        <v>46.69709779538928</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>33.61742231198733</v>
+        <v>33.61742231202647</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.13790736420071</v>
+        <v>25.13790736419176</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13.8259634419396</v>
+        <v>13.82596344188338</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13.61428157772274</v>
+        <v>13.61428157781699</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>10.40653674216129</v>
+        <v>10.40653674223783</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7.73139500537839</v>
+        <v>7.731395005493519</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>15.37996453166341</v>
+        <v>15.37996453169248</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.619233966701664</v>
+        <v>9.591348041338966</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>16.31171164706454</v>
+        <v>16.31171164704095</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8.075269425505068</v>
+        <v>8.075269425443269</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>11.71474006014051</v>
+        <v>11.73883706865464</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8.447033276837947</v>
+        <v>8.447033276841752</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>16.18636203486234</v>
+        <v>16.18636203477602</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8.362639728483099</v>
+        <v>8.362639728480486</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>15.23721680044464</v>
+        <v>15.23721680034125</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>15.91068428704721</v>
+        <v>15.91068428711616</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.593342802710435</v>
+        <v>9.564766514827811</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>15.40346377544448</v>
+        <v>15.40346377531396</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>16.66927023484144</v>
+        <v>16.66927023486953</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>14.07419987392925</v>
+        <v>14.07419987404571</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>11.6454247659796</v>
+        <v>11.66791124889721</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>16.46321215085744</v>
+        <v>16.46321215105833</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>17.57859976635785</v>
+        <v>17.57859976624381</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>21.29497169589448</v>
+        <v>21.29497169565829</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>20.20976679685176</v>
+        <v>20.20976679689938</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>19.12522034428311</v>
+        <v>19.12522034423902</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>15.8923595209358</v>
+        <v>15.89235952093031</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>28.92199174571134</v>
+        <v>28.92199174566451</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>24.0931530341833</v>
+        <v>24.09315303406719</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>22.61538418433179</v>
+        <v>22.61538418420436</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>24.7917482024802</v>
+        <v>24.7917482025363</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>23.55546418240696</v>
+        <v>23.55546418236761</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>18.49527058337774</v>
+        <v>18.49527058354831</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>16.31835311661452</v>
+        <v>16.31835311652826</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>12.22750551887463</v>
+        <v>12.22750551881325</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>18.33789299776123</v>
+        <v>18.33789299774234</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>22.96966718848671</v>
+        <v>22.96966718839225</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>24.58883806503825</v>
+        <v>24.58883806498685</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>27.67771516564456</v>
+        <v>27.67771516566961</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>39.60400553665833</v>
+        <v>39.60400553681983</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>36.32423067739188</v>
+        <v>36.3242306774666</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>48.38402710089181</v>
+        <v>48.3840271009548</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>53.26291271271021</v>
+        <v>53.26291271282844</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>69.74602465003161</v>
+        <v>69.74602464997653</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>78.02769753700134</v>
+        <v>78.02769753689147</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>86.34569894758526</v>
+        <v>86.34569894752438</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>89.37772381409796</v>
+        <v>89.37772381408497</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>96.93977633969878</v>
+        <v>96.93977633964859</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>107.9492084911242</v>
+        <v>107.9492084909259</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>103.6946338015104</v>
+        <v>103.6946338013915</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>109.5255344106272</v>
+        <v>109.525534410718</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>117.2322503339112</v>
+        <v>117.2322503338687</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>109.8710202198982</v>
+        <v>109.8710202200377</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>115.8831018742502</v>
+        <v>115.883101874327</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>110.7756443135323</v>
+        <v>110.7756443136196</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>108.829932982099</v>
+        <v>108.8299329821473</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>110.227921218406</v>
+        <v>110.2279212186077</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>104.3268911793829</v>
+        <v>104.3268911795183</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>97.85685574026719</v>
+        <v>97.85685574021549</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>97.05470186709942</v>
+        <v>97.05470186712813</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>95.0351243748684</v>
+        <v>95.03512431872427</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>92.38549475957431</v>
+        <v>92.38549471370489</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>82.7754583165723</v>
+        <v>82.77545831656793</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>80.08618860277105</v>
+        <v>80.08618860259725</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>72.06133206053467</v>
+        <v>72.06133206052637</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>67.13591876486471</v>
+        <v>67.13591876490881</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>71.37145215378469</v>
+        <v>71.37145215391389</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>63.11541293064338</v>
+        <v>63.1154129304696</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>62.84003965082765</v>
+        <v>62.84003965077838</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>59.52811198307892</v>
+        <v>59.52811198310928</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>47.45646673564671</v>
+        <v>47.45646673552181</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>43.24779400125473</v>
+        <v>43.24779400127898</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>31.23946180349314</v>
+        <v>31.23946180350794</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>28.09905960115071</v>
+        <v>28.09905960111835</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>18.06642510277381</v>
+        <v>18.06642510273805</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.858094179093583</v>
+        <v>7.780369063612574</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>15.90795613745808</v>
+        <v>15.90795613741686</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>32.99378996971537</v>
+        <v>32.99378996979716</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>46.79094671509814</v>
+        <v>46.79094671489717</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>51.21563393560464</v>
+        <v>51.21563393558522</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>56.4698447470474</v>
+        <v>56.4698447470388</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>65.63734377689883</v>
+        <v>65.63734377683761</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>83.4295991015713</v>
+        <v>83.42959910160539</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>86.74846873794601</v>
+        <v>86.74846873786576</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>91.22270140069605</v>
+        <v>91.22270140066723</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>93.5574484120156</v>
+        <v>93.55744841211978</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>90.89481849402867</v>
+        <v>90.89481849391244</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>87.4318084438565</v>
+        <v>87.43180844378821</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>85.5694107937757</v>
+        <v>85.56941079376728</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>87.23198504442095</v>
+        <v>87.23198504449806</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>73.88221161770238</v>
+        <v>73.88221161779349</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>74.69890206194005</v>
+        <v>74.69890206208055</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>60.81120501177226</v>
+        <v>60.81120501168397</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>69.40581825981202</v>
+        <v>69.40581825990648</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>47.08738753572757</v>
+        <v>47.08738753575623</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>46.80158107357389</v>
+        <v>46.80158107343417</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>30.93547759793921</v>
+        <v>30.93547759782099</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>25.52588647576796</v>
+        <v>25.52588647573891</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>21.97464001143136</v>
+        <v>21.97464001141526</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>15.13957154490628</v>
+        <v>15.13957154487131</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7.850171028198062</v>
+        <v>7.850171028236607</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8.53080309959617</v>
+        <v>8.530803099650651</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8.788509642604559</v>
+        <v>8.788509642596413</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>13.94286965658057</v>
+        <v>13.94286965663838</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>13.42551350651475</v>
+        <v>13.42551350664022</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>13.67676086375527</v>
+        <v>13.6767608637494</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>14.88509430453472</v>
+        <v>14.88509430456697</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>11.72004487593006</v>
+        <v>11.7442643506643</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>12.00713906427331</v>
+        <v>12.03796036928589</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>16.20802074784723</v>
+        <v>16.20802074773534</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>19.44822788738663</v>
+        <v>19.44822788729336</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>19.40100497924579</v>
+        <v>19.40100497930307</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>12.42645593743147</v>
+        <v>12.46673382791261</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11.86813155684849</v>
+        <v>11.89577018181096</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>13.57669498758635</v>
+        <v>13.57669498769131</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>16.10881691041691</v>
+        <v>16.10881691029405</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>16.76630701854791</v>
+        <v>16.7663070185889</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>19.85800447220694</v>
+        <v>19.85800447227549</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>14.87193838830543</v>
+        <v>14.87193838839505</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>19.29147549960347</v>
+        <v>19.2914754997392</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>25.31421936582104</v>
+        <v>25.31421936578874</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>18.98477313639595</v>
+        <v>18.98477313639803</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>14.78502582715224</v>
+        <v>14.78502582691408</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>24.1124418393176</v>
+        <v>24.1124418391801</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>23.19508620463796</v>
+        <v>23.19508620464627</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>15.89420781454721</v>
+        <v>15.89420781443742</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>28.91350933734333</v>
+        <v>28.91350933743996</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>22.9590692965011</v>
+        <v>22.9590692963979</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>20.17935260655116</v>
+        <v>20.17935260654427</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>20.31396229112318</v>
+        <v>20.31396229107918</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>12.43817518213835</v>
+        <v>12.43817518218736</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>21.45552165228162</v>
+        <v>21.45552165231729</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>19.65683554726405</v>
+        <v>19.65683554721946</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>21.42612089625019</v>
+        <v>21.42612089629835</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>25.42614005449199</v>
+        <v>25.42614005462406</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>26.83804363648631</v>
+        <v>26.83804363652557</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>36.97845181442222</v>
+        <v>36.97845181438682</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>43.87759747070368</v>
+        <v>43.87759747073534</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>59.377242540886</v>
+        <v>59.37724254095622</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>67.09858637316324</v>
+        <v>67.09858637303974</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>72.51819928760939</v>
+        <v>72.51819928761415</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>79.03637869350659</v>
+        <v>79.03637869359635</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>90.02671419658516</v>
+        <v>90.02671419657175</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>94.91473727310247</v>
+        <v>94.91473721750556</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>102.8327316817391</v>
+        <v>102.8327316817609</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>104.9838536849288</v>
+        <v>104.9838536848964</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>113.8309402424339</v>
+        <v>113.8309402422983</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>112.6833000367349</v>
+        <v>112.6833000366269</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>111.2781165641952</v>
+        <v>111.2781165641799</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>110.2796229335525</v>
+        <v>110.279622933471</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>115.8690352553605</v>
+        <v>115.8690352553035</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>107.848678379624</v>
+        <v>107.8486783796764</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>99.25831779854269</v>
+        <v>99.25831779852562</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>99.74738332636318</v>
+        <v>99.74738332650345</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>101.1428848608352</v>
+        <v>101.1428848608328</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>96.08201998818369</v>
+        <v>96.08201998824066</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>90.51874185168469</v>
+        <v>90.51874185159565</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>90.89442990759069</v>
+        <v>90.89442990769705</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>85.92566049408218</v>
+        <v>85.92566049425383</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>79.39214077194585</v>
+        <v>79.39214077205325</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>76.77230369065111</v>
+        <v>76.77230369072949</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>74.49130379414466</v>
+        <v>74.4913037942348</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>75.95740258622777</v>
+        <v>75.95740258613004</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>66.59243060635076</v>
+        <v>66.59243060628035</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>59.12936677334496</v>
+        <v>59.12936677325057</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>55.61793478989203</v>
+        <v>55.61793478985025</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>55.4477252394187</v>
+        <v>55.44772523942284</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>50.49969223260376</v>
+        <v>50.49969223260228</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>27.51943744646923</v>
+        <v>27.51943744656159</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>26.79807073304798</v>
+        <v>26.79807073302333</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>15.10122548887642</v>
+        <v>15.10122548884728</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.736265526633614</v>
+        <v>8.736265526639547</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.59441606165396</v>
+        <v>15.59441606166281</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>30.83704854488521</v>
+        <v>30.83704854487288</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>38.7527891909695</v>
+        <v>38.75278919086649</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>49.07814212175185</v>
+        <v>49.0781421215251</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>58.57949733997276</v>
+        <v>58.57949733998657</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>68.4480991018726</v>
+        <v>68.44809910194034</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>80.53089330798127</v>
+        <v>80.53089330802624</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>79.87387634063334</v>
+        <v>79.87387634061712</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>86.98856164389223</v>
+        <v>86.98856164392751</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>87.02610886240703</v>
+        <v>87.02610886234162</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>95.11500749753449</v>
+        <v>95.11500749761397</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>92.6824982558155</v>
+        <v>92.68249825569163</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>87.93075960472089</v>
+        <v>87.93075960483186</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>84.19446107560724</v>
+        <v>84.19446107562858</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>77.12125854307472</v>
+        <v>77.12125854320142</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>72.93449047750251</v>
+        <v>72.93449047762199</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>67.3258483367466</v>
+        <v>67.32584833673184</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>53.64765487839058</v>
+        <v>53.64765487843619</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>53.53826675300165</v>
+        <v>53.53826675296253</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>46.56359664411314</v>
+        <v>46.56359664412742</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>31.08896093953042</v>
+        <v>31.08896093950753</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>27.40856006786681</v>
+        <v>27.40856006776884</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>17.53899616046614</v>
+        <v>17.53899616050294</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10.87989703341565</v>
+        <v>10.87989703351422</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9.376762272918416</v>
+        <v>9.376762272918446</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7.878327624853609</v>
+        <v>7.878327624825389</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>14.16791227200212</v>
+        <v>14.16791227209744</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>12.89864781930008</v>
+        <v>12.89864781938824</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>13.91804365869222</v>
+        <v>13.91804365854315</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>15.96015326810217</v>
+        <v>15.96015326798018</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>13.93429407746313</v>
+        <v>13.93429407741933</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>11.31216577659284</v>
+        <v>11.32681553641636</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>10.66586538502515</v>
+        <v>10.66484732445326</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>13.96124005194794</v>
+        <v>13.96124005196051</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10.87607571200017</v>
+        <v>10.8802249356128</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>15.74301192849573</v>
+        <v>15.74301192841075</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10.56420965855245</v>
+        <v>10.56066660471952</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>10.67790848129842</v>
+        <v>10.6771880623415</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>12.79657994575494</v>
+        <v>12.82371337503319</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>13.94621532165804</v>
+        <v>13.94621532165302</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>19.08980296012546</v>
+        <v>19.08980296017934</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>11.19553497942223</v>
+        <v>11.20740453666726</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>13.58484963340257</v>
+        <v>13.58484963326273</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>16.8456305333234</v>
+        <v>16.84563053328814</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>13.49864125611713</v>
+        <v>13.49864125605162</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>19.2933528724426</v>
+        <v>19.29335287267157</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>18.99917531861435</v>
+        <v>18.99917531862085</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>24.21680105469517</v>
+        <v>24.21680105457907</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>21.14627639685193</v>
+        <v>21.14627639683349</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>31.95224984410012</v>
+        <v>31.95224984405296</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>26.63803414717588</v>
+        <v>26.63803414717388</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>26.81468113736922</v>
+        <v>26.81468113746737</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>27.14845321411902</v>
+        <v>27.14845321416672</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>22.99182594130947</v>
+        <v>22.99182594122491</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>32.82435542022336</v>
+        <v>32.82435542027118</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>37.7152818693397</v>
+        <v>37.71528186942293</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>30.50455261708101</v>
+        <v>30.50455261711306</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>40.17923133658089</v>
+        <v>40.17923133649226</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>43.46843237641509</v>
+        <v>43.46843237642896</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>47.50351220200953</v>
+        <v>47.50351220195604</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>41.68615105508272</v>
+        <v>41.68615105505653</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>57.66203917293771</v>
+        <v>57.66203917296243</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>56.82845523779436</v>
+        <v>56.82845523775404</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>55.17158557223878</v>
+        <v>55.1715855723118</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>64.77630957110667</v>
+        <v>64.7763095711345</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>67.73330652451804</v>
+        <v>67.73330652457838</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>67.93822997308212</v>
+        <v>67.93822997316697</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>66.93933857214611</v>
+        <v>66.93933857228433</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>67.72490939053219</v>
+        <v>67.72490939047336</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>70.99267125567059</v>
+        <v>70.99267125567231</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>75.96157182870805</v>
+        <v>75.96157182856952</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>72.34021548095461</v>
+        <v>72.3402154809154</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>78.56809566942675</v>
+        <v>78.56809566944996</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>78.05317525128476</v>
+        <v>78.05317525135504</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>78.38063833883243</v>
+        <v>78.38063833860464</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>82.68256059883295</v>
+        <v>82.68256059902768</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>75.48296459873791</v>
+        <v>75.48296459876995</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>80.14793349799815</v>
+        <v>80.1479334979845</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>72.77042421317579</v>
+        <v>72.77042421318777</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>73.95832913301152</v>
+        <v>73.95832913287708</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>68.64337021031204</v>
+        <v>68.64337021026058</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>68.67734785259593</v>
+        <v>68.67734785261962</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>62.3764146950571</v>
+        <v>62.37641469518209</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>58.75083517745385</v>
+        <v>58.75083517743293</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>59.55023353951714</v>
+        <v>59.55023353962423</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>51.69944279180059</v>
+        <v>51.6994427919106</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>42.29167129763599</v>
+        <v>42.29167129756289</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>42.13649736814882</v>
+        <v>42.13649736815145</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>35.00704169083155</v>
+        <v>35.00704169076176</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>33.58122832267899</v>
+        <v>33.5812283226085</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>25.93222970915759</v>
+        <v>25.93222970913996</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>18.41014541344997</v>
+        <v>18.41014541346977</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>11.01332432433095</v>
+        <v>11.01332432432946</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10.60395889865969</v>
+        <v>10.6039588985976</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>11.22165019126291</v>
+        <v>11.22165019127826</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>27.66535835208424</v>
+        <v>27.6653583521291</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>38.863804526423</v>
+        <v>38.86380452635551</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>49.68114744592106</v>
+        <v>49.68114744591133</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>64.44340007656554</v>
+        <v>64.44340007652836</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>76.0043744217549</v>
+        <v>76.00437442172672</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>77.95868719180177</v>
+        <v>77.9586871919394</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>82.04665747826803</v>
+        <v>82.04665747818287</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>97.89780877209169</v>
+        <v>97.89780877227545</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>104.7675406661534</v>
+        <v>104.7675406663099</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>101.5585508392896</v>
+        <v>101.558550718919</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>110.2328752468361</v>
+        <v>110.232875246911</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>116.9958622363679</v>
+        <v>116.9958622362816</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>107.9925089983544</v>
+        <v>107.9925089983013</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>99.57229087532093</v>
+        <v>99.57229087540792</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>97.70683482669482</v>
+        <v>97.70683482659936</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>100.6750966248572</v>
+        <v>100.6750966248685</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>89.08961647965867</v>
+        <v>89.08961647966834</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>78.20521121766016</v>
+        <v>78.20521121767764</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>68.55930368857511</v>
+        <v>68.55930368864499</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>70.43091938854428</v>
+        <v>70.43091938849929</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>55.29509180574308</v>
+        <v>55.29509180572029</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>37.52729927597945</v>
+        <v>37.52729927603679</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>33.43414738043273</v>
+        <v>33.43414738043422</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>24.05998026147039</v>
+        <v>24.05998026152833</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>15.1491515969468</v>
+        <v>15.14915159707467</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>11.31084202536301</v>
+        <v>11.31084202540206</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>10.6228986740548</v>
+        <v>10.62289867401844</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>10.33031863823042</v>
+        <v>10.33031863817518</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7.988136092393328</v>
+        <v>7.988136092345909</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>10.22382836791884</v>
+        <v>10.21170281416402</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>11.41996736489282</v>
+        <v>11.43716872235546</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>10.14207956568932</v>
+        <v>10.12786289663281</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>13.72062497269158</v>
+        <v>13.72062497282194</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8.980356864110574</v>
+        <v>8.953428849433667</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9.367704769561273</v>
+        <v>9.333055530236051</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11.84828999076669</v>
+        <v>11.87547213380959</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>15.52166815578302</v>
+        <v>15.52166815581223</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>18.47775241477335</v>
+        <v>18.47775241472674</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>15.28229686189343</v>
+        <v>15.28229686195508</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>14.18927511843628</v>
+        <v>14.18927511840362</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>11.85430301246247</v>
+        <v>11.88162376884853</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>13.21229828813865</v>
+        <v>13.21229828813672</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>16.67514200461748</v>
+        <v>16.67514200464277</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>13.77648392724355</v>
+        <v>13.7764839273482</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>16.50553684855462</v>
+        <v>16.50553684857304</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>19.04565663029121</v>
+        <v>19.04565663005687</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>15.00859281504137</v>
+        <v>15.00859281504644</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>18.31496640169735</v>
+        <v>18.31496640162076</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>23.57274642532609</v>
+        <v>23.57274642518</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>34.03679442443624</v>
+        <v>34.03679442451217</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>32.19680325921985</v>
+        <v>32.1968032591306</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>41.75075079109777</v>
+        <v>41.75075079107572</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>38.60893950697513</v>
+        <v>38.60893950713266</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>49.02401631237772</v>
+        <v>49.02401631234869</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>58.60606475702453</v>
+        <v>58.60606475704375</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>52.399664271334</v>
+        <v>52.39966427131346</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>55.06815485884551</v>
+        <v>55.06815485886221</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>61.6841767952105</v>
+        <v>61.68417679516276</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>70.79479704301285</v>
+        <v>70.79479704310003</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>79.92870819136746</v>
+        <v>79.9287081914095</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>72.65794376300899</v>
+        <v>72.65794376292565</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>72.86617426285412</v>
+        <v>72.86617426314832</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>75.43195048109705</v>
+        <v>75.43195048113823</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>72.60480563519751</v>
+        <v>72.60480563504345</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>74.86829911539988</v>
+        <v>74.86829911559421</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>71.03647427126147</v>
+        <v>71.0364742711926</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>65.76243990485233</v>
+        <v>65.7624399047596</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>70.23250284411633</v>
+        <v>70.23250284411459</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>57.57206756942488</v>
+        <v>57.57206756959206</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>60.61057463843399</v>
+        <v>60.61057463841077</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>47.2171151316015</v>
+        <v>47.21711513168388</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>53.59329054908344</v>
+        <v>53.59329054910697</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>47.17641983861506</v>
+        <v>47.17641983866967</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>48.06778517406836</v>
+        <v>48.06778517412763</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>43.68051812092479</v>
+        <v>43.68051812091159</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>31.02483421611132</v>
+        <v>31.02483421607422</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>32.94335990871708</v>
+        <v>32.94335990872703</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>29.46501521407904</v>
+        <v>29.46501521402459</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>35.30404796187045</v>
+        <v>35.30404796182594</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>40.53924581819992</v>
+        <v>40.53924581816168</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>41.90550196743654</v>
+        <v>41.9055019674312</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>35.28626476243469</v>
+        <v>35.28626476238639</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>43.97746265269458</v>
+        <v>43.97746265274296</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>42.85577496004543</v>
+        <v>42.85577495997845</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>43.34990019731489</v>
+        <v>43.3499001973483</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>52.65898333852562</v>
+        <v>52.65898333860128</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>48.13023907238543</v>
+        <v>48.13023907234506</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>51.19445830534325</v>
+        <v>51.19445830544817</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>45.43645960299662</v>
+        <v>45.43645960290771</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>39.81986905942962</v>
+        <v>39.81986905947604</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>43.15524884932162</v>
+        <v>43.15524884927098</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>24.73440541664014</v>
+        <v>24.73440541652826</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>33.06084881074241</v>
+        <v>33.06084881070612</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>16.86035826871235</v>
+        <v>16.86035826884408</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>17.96142568097113</v>
+        <v>17.96142568113085</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>8.609797937640101</v>
+        <v>8.554005449650887</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8.145519415246186</v>
+        <v>8.145519415278693</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>9.122239645828092</v>
+        <v>9.122239645860237</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>13.89500366804601</v>
+        <v>13.89500366807657</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>31.09584022934943</v>
+        <v>31.09584022939457</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>42.8532884866396</v>
+        <v>42.85328848669467</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>52.5333952413711</v>
+        <v>52.53339524143485</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>60.49156222177196</v>
+        <v>60.49156222173384</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>61.1288563517182</v>
+        <v>61.12885635183688</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>68.14612322922841</v>
+        <v>68.14612322945254</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>73.25866682012759</v>
+        <v>73.25866682008233</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>80.20912262158024</v>
+        <v>80.20912262153345</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>76.03645435734822</v>
+        <v>76.03645435737818</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>77.96611984684388</v>
+        <v>77.96611984676105</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>72.40052458967979</v>
+        <v>72.40052458947318</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>73.22136921134451</v>
+        <v>73.22136921131698</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>67.75195317747479</v>
+        <v>67.75195317750084</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>57.78389245224954</v>
+        <v>57.78389245217591</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>52.07332352205237</v>
+        <v>52.0733235221067</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>49.70037879835529</v>
+        <v>49.70037879835528</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>35.10728778420282</v>
+        <v>35.10728778422775</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>33.97333248171937</v>
+        <v>33.97333248157469</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>29.89929405806849</v>
+        <v>29.89929405821961</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>20.12546079437011</v>
+        <v>20.12546079456156</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10.72682548005763</v>
+        <v>10.72682548008887</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.537063081779877</v>
+        <v>8.537063081800166</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7.829748841762115</v>
+        <v>7.82974884189471</v>
       </c>
     </row>
   </sheetData>
